--- a/project/banksystem/data/회원정보관리.xlsx
+++ b/project/banksystem/data/회원정보관리.xlsx
@@ -1,134 +1,638 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
-  <sheets>
-    <sheet state="visible" name="시트1" sheetId="1" r:id="rId4"/>
-  </sheets>
-  <definedNames/>
-  <calcPr/>
-</workbook>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:fileVersion appName="HCell" lastEdited="11.0" lowestEdited="11.0" rupBuild="0.2292"/>
+  <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_JAVA_Study\My_JAVA_Study\project\banksystem\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <x:bookViews>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="6690" tabRatio="500"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="시트1" sheetId="1" r:id="rId4"/>
+  </x:sheets>
+  <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Bank_USER</t>
-  </si>
-  <si>
-    <t>Bank_ID</t>
-  </si>
-  <si>
-    <t>Bank_PASSWORD</t>
-  </si>
-  <si>
-    <t>Bank_Email</t>
-  </si>
-  <si>
-    <t>Bank_Tier</t>
-  </si>
-  <si>
-    <t>홍길동</t>
-  </si>
-  <si>
-    <t>hong1234</t>
-  </si>
-  <si>
-    <t>124578q!</t>
-  </si>
-  <si>
-    <t>hong1234@naver.com</t>
-  </si>
-</sst>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <x:si>
+    <x:t>Bank_PASSWORD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홍길동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bank_ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hong1234@naver.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bank_Err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bank_Tier</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hong1234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>124578q!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bank_Email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bank_USER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="lightGray"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border/>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-</styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:numFmts count="0"/>
+  <x:fonts count="7">
+    <x:font>
+      <x:name val="Arial"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="Arial"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="Arial"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="Arial"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="Arial"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="Arial"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="Arial"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="7">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:dxfs count="4">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ffd7dff4"/>
+              <x:bgColor rgb="ffd7dff4"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:left style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:left>
+            <x:right style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:right>
+            <x:top style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:top>
+            <x:bottom style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:bottom>
+            <x:vertical style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:vertical>
+            <x:horizontal style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ffd7dff4"/>
+              <x:bgColor rgb="ffd7dff4"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:left style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:left>
+            <x:right style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:right>
+            <x:top style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:top>
+            <x:bottom style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:bottom>
+            <x:vertical style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:vertical>
+            <x:horizontal style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:dxf/>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ffaebfea"/>
+          <x:bgColor rgb="ffaebfea"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:top style="thick">
+              <x:color rgb="ffffffff"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:top style="thick">
+              <x:color rgb="ffffffff"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:bottom style="thick">
+              <x:color rgb="ffffffff"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:bottom style="thick">
+              <x:color rgb="ffffffff"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:left>
+              <x:color indexed="64"/>
+            </x:left>
+            <x:right>
+              <x:color indexed="64"/>
+            </x:right>
+            <x:top style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:top>
+            <x:bottom style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:bottom>
+            <x:vertical>
+              <x:color indexed="64"/>
+            </x:vertical>
+            <x:horizontal>
+              <x:color indexed="64"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+          </x:font>
+          <x:border>
+            <x:left>
+              <x:color indexed="64"/>
+            </x:left>
+            <x:right>
+              <x:color indexed="64"/>
+            </x:right>
+            <x:top style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:top>
+            <x:bottom style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:bottom>
+            <x:vertical>
+              <x:color indexed="64"/>
+            </x:vertical>
+            <x:horizontal>
+              <x:color indexed="64"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ff94a5df"/>
+          <x:bgColor rgb="ff94a5df"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border>
+        <x:top style="thin">
+          <x:color rgb="ff6182d6"/>
+        </x:top>
+        <x:bottom style="thin">
+          <x:color rgb="ff6182d6"/>
+        </x:bottom>
+      </x:border>
+    </x:dxf>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ff6182d6"/>
+          <x:bgColor rgb="ff6182d6"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:b val="1"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:b val="1"/>
+          </x:font>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:b val="1"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:top style="thin">
+              <x:color rgb="ff6182d6"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:b val="1"/>
+          </x:font>
+          <x:border>
+            <x:top style="thin">
+              <x:color rgb="ff6182d6"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:b val="1"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:bottom style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:b val="1"/>
+          </x:font>
+          <x:border>
+            <x:bottom style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </x:dxfs>
+  <x:tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
+    <x:tableStyle name="Normal Style 1 - Accent 1" pivot="0" table="1" count="9">
+      <x:tableStyleElement type="wholeTable" size="1" dxfId="0"/>
+      <x:tableStyleElement type="headerRow" size="1" dxfId="5"/>
+      <x:tableStyleElement type="totalRow" size="1" dxfId="4"/>
+      <x:tableStyleElement type="firstColumn" size="1" dxfId="3"/>
+      <x:tableStyleElement type="lastColumn" size="1" dxfId="3"/>
+      <x:tableStyleElement type="firstRowStripe" size="1" dxfId="2"/>
+      <x:tableStyleElement type="secondRowStripe" size="1" dxfId="1"/>
+      <x:tableStyleElement type="firstColumnStripe" size="1" dxfId="2"/>
+      <x:tableStyleElement type="secondColumnStripe" size="1" dxfId="1"/>
+    </x:tableStyle>
+    <x:tableStyle name="Light Style 1 - Accent 1" pivot="1" table="0" count="8">
+      <x:tableStyleElement type="wholeTable" size="1" dxfId="6"/>
+      <x:tableStyleElement type="headerRow" size="1" dxfId="11"/>
+      <x:tableStyleElement type="totalRow" size="1" dxfId="10"/>
+      <x:tableStyleElement type="firstColumn" size="1" dxfId="9"/>
+      <x:tableStyleElement type="lastColumn" size="1" dxfId="9"/>
+      <x:tableStyleElement type="firstRowStripe" size="1" dxfId="7"/>
+      <x:tableStyleElement type="secondRowStripe" size="1" dxfId="1"/>
+      <x:tableStyleElement type="firstColumnStripe" size="1" dxfId="8"/>
+    </x:tableStyle>
+  </x:tableStyles>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
@@ -207,21 +711,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -285,51 +789,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="3" max="3" width="15.38"/>
-    <col customWidth="1" min="4" max="4" width="17.75"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet1"/>
+  <x:dimension ref="A1:F8"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="F7" activeCellId="0" sqref="F7:F7"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15.75" customHeight="1"/>
+  <x:cols>
+    <x:col min="3" max="3" customWidth="true" style="5" width="15.37890625" collapsed="true"/>
+    <x:col min="4" max="4" customWidth="true" style="5" width="17.75" collapsed="true"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:6" ht="16.399999999999999">
+      <x:c r="A1" s="6" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B1" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C1" s="6" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D1" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E1" s="6" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F1" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6" ht="16.399999999999999">
+      <x:c r="A2" s="6" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B2" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C2" s="6" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D2" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:1" ht="13.199999999999999">
+      <x:c r="A3" s="3"/>
+    </x:row>
+    <x:row r="4" spans="2:2" ht="13.199999999999999">
+      <x:c r="B4" s="3"/>
+    </x:row>
+    <x:row r="5" spans="3:3" ht="13.199999999999999">
+      <x:c r="C5" s="3"/>
+    </x:row>
+    <x:row r="6" spans="4:4" ht="13.199999999999999">
+      <x:c r="D6" s="3"/>
+    </x:row>
+    <x:row r="7" spans="1:4" ht="13.199999999999999">
+      <x:c r="A7" s="2"/>
+      <x:c r="B7" s="2"/>
+      <x:c r="C7" s="2"/>
+      <x:c r="D7" s="2"/>
+    </x:row>
+    <x:row r="8" spans="1:4" ht="13.199999999999999">
+      <x:c r="A8" s="1"/>
+      <x:c r="B8" s="1"/>
+      <x:c r="C8" s="1"/>
+      <x:c r="D8" s="1"/>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
 </file>
--- a/project/banksystem/data/회원정보관리.xlsx
+++ b/project/banksystem/data/회원정보관리.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <x:si>
     <x:t>Bank_USER</x:t>
   </x:si>
@@ -67,12 +67,175 @@
   </x:si>
   <x:si>
     <x:t>Bank_Err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이순신</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lee0304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123qwe!@#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>leess1@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Normal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VIP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VIP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Normal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Normal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VIP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VIP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VIP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VIP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VIP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VIP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VIP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VIP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VIP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VIP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Normal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Normal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김유신</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kim1234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1q2w3e4r!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kim1234@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Normal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이푸름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>poo5555</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1q2w3e4r!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>poo1234@naver.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Normal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Normal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sin7777</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1q2w3e4r!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sin7777@god.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Normal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Normal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ban1234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1q2w3e4r!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ban1234@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Normal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Normal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VIP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VIP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VIP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VIP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VIP</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:numFmts count="0"/>
   <x:fonts count="7">
     <x:font>
       <x:name val="Arial"/>
@@ -168,7 +331,7 @@
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
-  <x:dxfs count="12">
+  <x:dxfs count="4">
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:dxf hs:applyExtension="1">
@@ -760,7 +923,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:F3"/>
+  <x:dimension ref="A1:F8"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="G13" activeCellId="0" sqref="G13:G13"/>
@@ -768,9 +931,9 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15.75" customHeight="1"/>
   <x:cols>
-    <x:col min="3" max="3" width="15.37890625" style="5" customWidth="1"/>
-    <x:col min="4" max="4" width="17.75" style="5" customWidth="1"/>
-    <x:col min="6" max="6" width="12.62890625" style="3" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" customWidth="true" style="5" width="15.37890625" collapsed="true"/>
+    <x:col min="4" max="4" customWidth="true" style="5" width="17.75" collapsed="true"/>
+    <x:col min="6" max="6" bestFit="true" customWidth="true" style="3" width="12.62890625" collapsed="true"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="16.399999999999999">
@@ -809,8 +972,8 @@
       <x:c r="E2" s="7" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="F2" s="1" t="s">
-        <x:v>9</x:v>
+      <x:c r="F2" t="s">
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6" ht="13.199999999999999">
@@ -831,6 +994,106 @@
       </x:c>
       <x:c r="F3" s="3" t="s">
         <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4">
+      <x:c r="A4" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B4" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C4" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D4" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F4" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c r="A5" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C5" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D5" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E5" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F5" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6">
+      <x:c r="A6" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B6" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C6" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D6" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E6" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F6" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7">
+      <x:c r="A7" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B7" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C7" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D7" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E7" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F7" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c r="A8" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B8" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C8" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D8" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E8" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="F8" t="s">
+        <x:v>64</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
